--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_8_2.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_8_2.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_0</t>
+          <t>model_8_2_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999975899129042</v>
+        <v>0.7076268821574447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6836267626869483</v>
+        <v>0.1328731422596843</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999995905282962</v>
+        <v>0.3367847338120001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999979513586922</v>
+        <v>-0.1129018305657135</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999977693734836</v>
+        <v>0.2383529937206473</v>
       </c>
       <c r="G2" t="n">
-        <v>1.430731810385784e-06</v>
+        <v>0.1735653126124052</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1878128202812702</v>
+        <v>0.5147639606845024</v>
       </c>
       <c r="I2" t="n">
-        <v>1.028676405626853e-06</v>
+        <v>0.2824735698825442</v>
       </c>
       <c r="J2" t="n">
-        <v>1.781021904942619e-06</v>
+        <v>0.1330252723341784</v>
       </c>
       <c r="K2" t="n">
-        <v>1.404818735574026e-06</v>
+        <v>0.2077494211083613</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007896032188776384</v>
+        <v>0.238497238110384</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001196132020466714</v>
+        <v>0.4166117048432571</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00000141078269</v>
+        <v>0.3620950156162431</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001247053836912609</v>
+        <v>0.4343477276235537</v>
       </c>
       <c r="P2" t="n">
-        <v>156.9146489781602</v>
+        <v>29.50240261772303</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.1415775945933</v>
+        <v>45.34778834100963</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_1</t>
+          <t>model_8_2_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999980528185218</v>
+        <v>0.7022678675138948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6836014303778064</v>
+        <v>0.05324030499354471</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999966579512378</v>
+        <v>0.2940810043714851</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999983616860626</v>
+        <v>-0.1171061094884742</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999982026551588</v>
+        <v>0.2040912254685003</v>
       </c>
       <c r="G3" t="n">
-        <v>1.155931039313733e-06</v>
+        <v>0.1767466552021951</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1878278586342756</v>
+        <v>0.5620374528451368</v>
       </c>
       <c r="I3" t="n">
-        <v>8.395907888571283e-07</v>
+        <v>0.3006617442466446</v>
       </c>
       <c r="J3" t="n">
-        <v>1.424296678328061e-06</v>
+        <v>0.133527810234026</v>
       </c>
       <c r="K3" t="n">
-        <v>1.131943733592595e-06</v>
+        <v>0.2170947772403353</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007102667317046547</v>
+        <v>0.2431700691623017</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001075142334444018</v>
+        <v>0.4204124822150208</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000001139813548</v>
+        <v>0.350402620030316</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00112091336947275</v>
+        <v>0.4383103119567271</v>
       </c>
       <c r="P3" t="n">
-        <v>157.3412088881328</v>
+        <v>29.46607579655183</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.5681375045658</v>
+        <v>45.31146151983843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_2</t>
+          <t>model_8_2_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999984258753866</v>
+        <v>0.6874876832681849</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6835788486341126</v>
+        <v>-0.1379383882646474</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999972812426178</v>
+        <v>0.1644904877682999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999986876861707</v>
+        <v>-0.1101949336907595</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999985519979712</v>
+        <v>0.1044288445994622</v>
       </c>
       <c r="G4" t="n">
-        <v>9.344683691914951e-07</v>
+        <v>0.1855208110411633</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1878412641328128</v>
+        <v>0.6755293836527357</v>
       </c>
       <c r="I4" t="n">
-        <v>6.830072861488708e-07</v>
+        <v>0.3558563359788685</v>
       </c>
       <c r="J4" t="n">
-        <v>1.140882821846704e-06</v>
+        <v>0.1327017166672888</v>
       </c>
       <c r="K4" t="n">
-        <v>9.119323043966547e-07</v>
+        <v>0.2442790263230786</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006389519374352609</v>
+        <v>0.2520798561572636</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0009666790414566229</v>
+        <v>0.4307212683872986</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000000921438798</v>
+        <v>0.3181549453124034</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001007832569552912</v>
+        <v>0.4490579644984881</v>
       </c>
       <c r="P4" t="n">
-        <v>157.7665761169316</v>
+        <v>29.3691764286524</v>
       </c>
       <c r="Q4" t="n">
-        <v>236.9935047333647</v>
+        <v>45.21456215193901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_3</t>
+          <t>model_8_2_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999987262259091</v>
+        <v>0.6815014284681905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6835612637408084</v>
+        <v>-0.2503941361292501</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999977776053062</v>
+        <v>0.1145734125810044</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999989457731793</v>
+        <v>-0.1128845528728699</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999988291103618</v>
+        <v>0.06486719482588654</v>
       </c>
       <c r="G5" t="n">
-        <v>7.561673244967243e-07</v>
+        <v>0.1890745104831826</v>
       </c>
       <c r="H5" t="n">
-        <v>0.187851703285106</v>
+        <v>0.7422879734205282</v>
       </c>
       <c r="I5" t="n">
-        <v>5.583108586643447e-07</v>
+        <v>0.3771167851046788</v>
       </c>
       <c r="J5" t="n">
-        <v>9.16510398108129e-07</v>
+        <v>0.1330232071297437</v>
       </c>
       <c r="K5" t="n">
-        <v>7.374106283862368e-07</v>
+        <v>0.2550699961172113</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000575419573996991</v>
+        <v>0.2557889221499793</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0008695788201748731</v>
+        <v>0.4348269891384188</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000000745623858</v>
+        <v>0.3050940257487793</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0009065985908260302</v>
+        <v>0.4533384742819971</v>
       </c>
       <c r="P5" t="n">
-        <v>158.1900063131142</v>
+        <v>29.33122821250416</v>
       </c>
       <c r="Q5" t="n">
-        <v>237.4169349295472</v>
+        <v>45.17661393579077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_4</t>
+          <t>model_8_2_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999989684796406</v>
+        <v>0.6678513177393206</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6835456604410959</v>
+        <v>-0.4942979719619205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999981776692906</v>
+        <v>-0.004129048510597144</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999991514650836</v>
+        <v>-0.1101021029762075</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999990508728209</v>
+        <v>-0.02719907311398795</v>
       </c>
       <c r="G6" t="n">
-        <v>6.123550446666419e-07</v>
+        <v>0.1971778058659205</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1878609660778428</v>
+        <v>0.8870798264679034</v>
       </c>
       <c r="I6" t="n">
-        <v>4.578066290403535e-07</v>
+        <v>0.427673986737133</v>
       </c>
       <c r="J6" t="n">
-        <v>7.376885682952065e-07</v>
+        <v>0.1326906206022586</v>
       </c>
       <c r="K6" t="n">
-        <v>5.9774759866778e-07</v>
+        <v>0.2801823036696958</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005188801825919811</v>
+        <v>0.2626359438291888</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0007825311780795969</v>
+        <v>0.4440470761821549</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000000603816796</v>
+        <v>0.2753119659766996</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0008158451503932979</v>
+        <v>0.4629510795193963</v>
       </c>
       <c r="P6" t="n">
-        <v>158.6119071686102</v>
+        <v>29.24729877893255</v>
       </c>
       <c r="Q6" t="n">
-        <v>237.8388357850432</v>
+        <v>45.09268450221916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_5</t>
+          <t>model_8_2_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999999164480301</v>
+        <v>0.6642956171823793</v>
       </c>
       <c r="C7" t="n">
-        <v>0.683532414963919</v>
+        <v>-0.6089549399215981</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999985067208649</v>
+        <v>-0.03251040380126069</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999993157091428</v>
+        <v>-0.1138606509563826</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99999922986431</v>
+        <v>-0.05018110661072583</v>
       </c>
       <c r="G7" t="n">
-        <v>4.960005859163234e-07</v>
+        <v>0.1992886233147872</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1878688291652698</v>
+        <v>0.9551451555718893</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7514216466281e-07</v>
+        <v>0.4397620419369753</v>
       </c>
       <c r="J7" t="n">
-        <v>5.949001425174582e-07</v>
+        <v>0.1331398802358686</v>
       </c>
       <c r="K7" t="n">
-        <v>4.850211535901342e-07</v>
+        <v>0.2864509610864219</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004677750134674852</v>
+        <v>0.2646353375578731</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0007042730904388748</v>
+        <v>0.4464175436906431</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000000489084702</v>
+        <v>0.267554073852464</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0007342554539451359</v>
+        <v>0.4654224627372651</v>
       </c>
       <c r="P7" t="n">
-        <v>159.0333774578785</v>
+        <v>29.22600227322004</v>
       </c>
       <c r="Q7" t="n">
-        <v>238.2603060743116</v>
+        <v>45.07138799650664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_6</t>
+          <t>model_8_2_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999993220013462</v>
+        <v>0.6579165193152914</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6835208536426688</v>
+        <v>-0.7553470945002894</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999987683750139</v>
+        <v>-0.08847811032973829</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999994468415296</v>
+        <v>-0.1123843557830575</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999993725595256</v>
+        <v>-0.09355394350739488</v>
       </c>
       <c r="G8" t="n">
-        <v>4.024892888890092e-07</v>
+        <v>0.20307553137137</v>
       </c>
       <c r="H8" t="n">
-        <v>0.187875692464987</v>
+        <v>1.042049862341603</v>
       </c>
       <c r="I8" t="n">
-        <v>3.094093076730158e-07</v>
+        <v>0.4635995478980581</v>
       </c>
       <c r="J8" t="n">
-        <v>4.808979243301216e-07</v>
+        <v>0.1329634185192252</v>
       </c>
       <c r="K8" t="n">
-        <v>3.951536160015686e-07</v>
+        <v>0.2982814832086417</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004222470581946725</v>
+        <v>0.2674798543276726</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0006344204354282806</v>
+        <v>0.4506390255752047</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000000396877261</v>
+        <v>0.2536360421424539</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0006614290267958108</v>
+        <v>0.4698236618453248</v>
       </c>
       <c r="P8" t="n">
-        <v>159.4511947037955</v>
+        <v>29.18835458684464</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.6781233202286</v>
+        <v>45.03374031013124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_7</t>
+          <t>model_8_2_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999994487800852</v>
+        <v>0.6532900336223209</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6835131138985144</v>
+        <v>-0.8931397513239296</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999989709110362</v>
+        <v>-0.1287317318629233</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999995514749956</v>
+        <v>-0.1119157155323534</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999994851739372</v>
+        <v>-0.1248789299938236</v>
       </c>
       <c r="G9" t="n">
-        <v>3.272279528802852e-07</v>
+        <v>0.2058220131324932</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1878802871114566</v>
+        <v>1.123849535764957</v>
       </c>
       <c r="I9" t="n">
-        <v>2.585281294201225e-07</v>
+        <v>0.4807441836669767</v>
       </c>
       <c r="J9" t="n">
-        <v>3.899330031982788e-07</v>
+        <v>0.1329074019009894</v>
       </c>
       <c r="K9" t="n">
-        <v>3.242305663092007e-07</v>
+        <v>0.3068257927839831</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003813396624498578</v>
+        <v>0.2694997712393213</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0005720384190596688</v>
+        <v>0.4536761103832702</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000000322665316</v>
+        <v>0.2435418915396091</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0005963912788418111</v>
+        <v>0.4729900416413018</v>
       </c>
       <c r="P9" t="n">
-        <v>159.8652176106072</v>
+        <v>29.16148699517532</v>
       </c>
       <c r="Q9" t="n">
-        <v>239.0921462270402</v>
+        <v>45.00687271846192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_8</t>
+          <t>model_8_2_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999995510294575</v>
+        <v>0.648276689941768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6835064932674006</v>
+        <v>-1.032913306619849</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999991394728358</v>
+        <v>-0.1724340236099509</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999999634239825</v>
+        <v>-0.1111849344634432</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999995758771894</v>
+        <v>-0.1588389986476777</v>
       </c>
       <c r="G10" t="n">
-        <v>2.665283085402651e-07</v>
+        <v>0.2087981505064399</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1878842174040821</v>
+        <v>1.206825156091815</v>
       </c>
       <c r="I10" t="n">
-        <v>2.161819686169235e-07</v>
+        <v>0.4993576610568835</v>
       </c>
       <c r="J10" t="n">
-        <v>3.17979961272233e-07</v>
+        <v>0.132820051563306</v>
       </c>
       <c r="K10" t="n">
-        <v>2.671068716206564e-07</v>
+        <v>0.3160888563100948</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003443664327061191</v>
+        <v>0.2716007093910704</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0005162637974333133</v>
+        <v>0.4569443625940033</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000000262812025</v>
+        <v>0.2326036871456757</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0005382422161034383</v>
+        <v>0.4763974301148605</v>
       </c>
       <c r="P10" t="n">
-        <v>160.2755707511324</v>
+        <v>29.13277456148132</v>
       </c>
       <c r="Q10" t="n">
-        <v>239.5024993675654</v>
+        <v>44.97816028476792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_9</t>
+          <t>model_8_2_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999996336006829</v>
+        <v>0.6292531955053001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6835015270068039</v>
+        <v>-1.7798337722743</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999992704075922</v>
+        <v>-0.337288529477096</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999997004264729</v>
+        <v>-0.1107042405684464</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999996477287552</v>
+        <v>-0.2874424166249456</v>
       </c>
       <c r="G11" t="n">
-        <v>2.175104622389392e-07</v>
+        <v>0.2200913185760979</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1878871655909036</v>
+        <v>1.650229409788387</v>
       </c>
       <c r="I11" t="n">
-        <v>1.832884882284084e-07</v>
+        <v>0.5695717275260879</v>
       </c>
       <c r="J11" t="n">
-        <v>2.604394492080092e-07</v>
+        <v>0.1327625941717059</v>
       </c>
       <c r="K11" t="n">
-        <v>2.218557168525934e-07</v>
+        <v>0.3511671608488969</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003114211360018555</v>
+        <v>0.2791882941470901</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0004663801692170661</v>
+        <v>0.4691389118119471</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000000214477649</v>
+        <v>0.1910978811024731</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0004862349385606796</v>
+        <v>0.4891111265392091</v>
       </c>
       <c r="P11" t="n">
-        <v>160.6820377706531</v>
+        <v>29.02742546863336</v>
       </c>
       <c r="Q11" t="n">
-        <v>239.9089663870861</v>
+        <v>44.87281119191996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_18</t>
+          <t>model_8_2_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999225330084</v>
+        <v>0.614557600578111</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6835005417104452</v>
+        <v>-2.465644064565835</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999996834559161</v>
+        <v>-0.4654153816600404</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999999193756931</v>
+        <v>-0.1090084085768415</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999998812181266</v>
+        <v>-0.3871047854514709</v>
       </c>
       <c r="G12" t="n">
-        <v>4.598775258321053e-08</v>
+        <v>0.2288152585415238</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1878877505053847</v>
+        <v>2.057356024754696</v>
       </c>
       <c r="I12" t="n">
-        <v>7.952232777696001e-08</v>
+        <v>0.6241429220975802</v>
       </c>
       <c r="J12" t="n">
-        <v>7.009214160097215e-08</v>
+        <v>0.1325598911961868</v>
       </c>
       <c r="K12" t="n">
-        <v>7.480723468896608e-08</v>
+        <v>0.3783514066468835</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001320393454363935</v>
+        <v>0.2844710734449113</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0002144475520569319</v>
+        <v>0.4783463792499363</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000000045346532</v>
+        <v>0.1590347648976969</v>
       </c>
       <c r="O12" t="n">
-        <v>0.000223577028315626</v>
+        <v>0.4987105749281187</v>
       </c>
       <c r="P12" t="n">
-        <v>163.7897814481975</v>
+        <v>28.9496806645408</v>
       </c>
       <c r="Q12" t="n">
-        <v>243.0167100646305</v>
+        <v>44.7950663878274</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_17</t>
+          <t>model_8_2_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999113649841</v>
+        <v>0.6068589262671881</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6835003730649213</v>
+        <v>-3.044201296533944</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999996728570431</v>
+        <v>-0.5318540085266061</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999119496594</v>
+        <v>-0.1098792052177093</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999998739786869</v>
+        <v>-0.4391669737915771</v>
       </c>
       <c r="G13" t="n">
-        <v>5.26175742752379e-08</v>
+        <v>0.2333855241779015</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1878878506206528</v>
+        <v>2.400812590022054</v>
       </c>
       <c r="I13" t="n">
-        <v>8.218498078159602e-08</v>
+        <v>0.652440153880199</v>
       </c>
       <c r="J13" t="n">
-        <v>7.654809300552797e-08</v>
+        <v>0.1326639776098467</v>
       </c>
       <c r="K13" t="n">
-        <v>7.9366536893562e-08</v>
+        <v>0.3925520657450229</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000144563673608193</v>
+        <v>0.2872070515469127</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0002293852093645924</v>
+        <v>0.4830999111756299</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000000051883912</v>
+        <v>0.1422376573102285</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0002391506126200871</v>
+        <v>0.5036664745490567</v>
       </c>
       <c r="P13" t="n">
-        <v>163.5204313226182</v>
+        <v>28.91012716514045</v>
       </c>
       <c r="Q13" t="n">
-        <v>242.7473599390512</v>
+        <v>44.75551288842706</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_19</t>
+          <t>model_8_2_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999314186927</v>
+        <v>0.5975240779938515</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6834995750500917</v>
+        <v>-3.559285799301269</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999996907188302</v>
+        <v>-0.6126312540706871</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999252546248</v>
+        <v>-0.1102962776379848</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999998867516173</v>
+        <v>-0.5023245004856176</v>
       </c>
       <c r="G14" t="n">
-        <v>4.071282654236734e-08</v>
+        <v>0.2389270933574029</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1878883243567281</v>
+        <v>2.706589001356693</v>
       </c>
       <c r="I14" t="n">
-        <v>7.769773566091395e-08</v>
+        <v>0.6868444236209492</v>
       </c>
       <c r="J14" t="n">
-        <v>6.498119025439265e-08</v>
+        <v>0.1327138303199119</v>
       </c>
       <c r="K14" t="n">
-        <v>7.132231618524659e-08</v>
+        <v>0.4097791269704305</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001208193540213081</v>
+        <v>0.2903761635009122</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0002017741969191485</v>
+        <v>0.4888016912382801</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000000040145155</v>
+        <v>0.1218707156229489</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0002103641422121654</v>
+        <v>0.5096109911932858</v>
       </c>
       <c r="P14" t="n">
-        <v>164.0334452913712</v>
+        <v>28.86319364460249</v>
       </c>
       <c r="Q14" t="n">
-        <v>243.2603739078042</v>
+        <v>44.70857936788909</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_14</t>
+          <t>model_8_2_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999998578824495</v>
+        <v>0.588919311268927</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6834992035887351</v>
+        <v>-4.512582441894608</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999996053542388</v>
+        <v>-0.6864548585473256</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999998749454612</v>
+        <v>-0.1128616658939117</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999998349747437</v>
+        <v>-0.5605237479353187</v>
       </c>
       <c r="G15" t="n">
-        <v>8.436711716383277e-08</v>
+        <v>0.2440352545918861</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1878885448722357</v>
+        <v>3.272507068670837</v>
       </c>
       <c r="I15" t="n">
-        <v>9.91430614974978e-08</v>
+        <v>0.7182870308123854</v>
       </c>
       <c r="J15" t="n">
-        <v>1.087183354993945e-07</v>
+        <v>0.1330204714467524</v>
       </c>
       <c r="K15" t="n">
-        <v>1.039306984984462e-07</v>
+        <v>0.4256537511295689</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001908017086762352</v>
+        <v>0.2932832811873081</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0002904601817183085</v>
+        <v>0.4939992455377701</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000000083190761</v>
+        <v>0.1030966791322045</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0003028256729895227</v>
+        <v>0.5150298161397258</v>
       </c>
       <c r="P15" t="n">
-        <v>162.5761762366493</v>
+        <v>28.82088515618743</v>
       </c>
       <c r="Q15" t="n">
-        <v>241.8031048530823</v>
+        <v>44.66627087947403</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_24</t>
+          <t>model_8_2_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999553091166</v>
+        <v>0.5730984346982505</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6834990870066129</v>
+        <v>-5.816998965271353</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999997062861353</v>
+        <v>-0.8228631427120718</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999999391105607</v>
+        <v>-0.115512433845139</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999998993927477</v>
+        <v>-0.6676041551759773</v>
       </c>
       <c r="G16" t="n">
-        <v>2.653043894947017e-08</v>
+        <v>0.2534272103505221</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1878886140804196</v>
+        <v>4.046865064807095</v>
       </c>
       <c r="I16" t="n">
-        <v>7.378691121916978e-08</v>
+        <v>0.7763854144805411</v>
       </c>
       <c r="J16" t="n">
-        <v>5.293529169514826e-08</v>
+        <v>0.133337318017512</v>
       </c>
       <c r="K16" t="n">
-        <v>6.336110145715901e-08</v>
+        <v>0.4548613662490265</v>
       </c>
       <c r="L16" t="n">
-        <v>8.23921061839028e-05</v>
+        <v>0.2983058320851422</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0001628816716192162</v>
+        <v>0.5034155444069265</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000000026160517</v>
+        <v>0.06857840297800122</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0001698158815915886</v>
+        <v>0.5248469863461679</v>
       </c>
       <c r="P16" t="n">
-        <v>164.8899462470667</v>
+        <v>28.74535727167963</v>
       </c>
       <c r="Q16" t="n">
-        <v>244.1168748634997</v>
+        <v>44.59074299496623</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_23</t>
+          <t>model_8_2_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999523982667</v>
+        <v>0.5768768939798998</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6834990717024982</v>
+        <v>-6.24833640168966</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999999705057706</v>
+        <v>-0.7893527380613163</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999376498695</v>
+        <v>-0.1171601139411984</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999998981395584</v>
+        <v>-0.6418022163172017</v>
       </c>
       <c r="G17" t="n">
-        <v>2.825844521262195e-08</v>
+        <v>0.2511841536999929</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1878886231656031</v>
+        <v>4.302925599872061</v>
       </c>
       <c r="I17" t="n">
-        <v>7.409551772670783e-08</v>
+        <v>0.7621128183680983</v>
       </c>
       <c r="J17" t="n">
-        <v>5.420516894682949e-08</v>
+        <v>0.1335342653919147</v>
       </c>
       <c r="K17" t="n">
-        <v>6.415034333676866e-08</v>
+        <v>0.4478235418800065</v>
       </c>
       <c r="L17" t="n">
-        <v>8.84626537097903e-05</v>
+        <v>0.2972559370715249</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0001681024842547603</v>
+        <v>0.501182754791097</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000000027864429</v>
+        <v>0.07682231413796337</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0001752589550295999</v>
+        <v>0.5225191422538809</v>
       </c>
       <c r="P17" t="n">
-        <v>164.7637469568995</v>
+        <v>28.76313785756472</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.9906755733325</v>
+        <v>44.60852358085132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_22</t>
+          <t>model_8_2_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999999488702345</v>
+        <v>0.5417583183000871</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6834989943715148</v>
+        <v>-8.673828866477196</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999997046197614</v>
+        <v>-1.095740358132934</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999999357011766</v>
+        <v>-0.1137276112752419</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999998967072076</v>
+        <v>-0.880259630843969</v>
       </c>
       <c r="G18" t="n">
-        <v>3.035283751328833e-08</v>
+        <v>0.2720320572670079</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1878886690726153</v>
+        <v>5.742802702788831</v>
       </c>
       <c r="I18" t="n">
-        <v>7.420553832380504e-08</v>
+        <v>0.8926080123446998</v>
       </c>
       <c r="J18" t="n">
-        <v>5.589929897594658e-08</v>
+        <v>0.1331239779888519</v>
       </c>
       <c r="K18" t="n">
-        <v>6.50524186498758e-08</v>
+        <v>0.5128659951667758</v>
       </c>
       <c r="L18" t="n">
-        <v>9.52990274228577e-05</v>
+        <v>0.3073461706054221</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0001742206575389047</v>
+        <v>0.5215669250125126</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000000029929619</v>
+        <v>0.0001999672001902209</v>
       </c>
       <c r="O18" t="n">
-        <v>0.000181637591616815</v>
+        <v>0.5437711088026715</v>
       </c>
       <c r="P18" t="n">
-        <v>164.6207516615736</v>
+        <v>28.60367072406302</v>
       </c>
       <c r="Q18" t="n">
-        <v>243.8476802780066</v>
+        <v>44.44905644734962</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_10</t>
+          <t>model_8_2_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999996997824481</v>
+        <v>0.5494225422717702</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6834987714656133</v>
+        <v>-11.0720850547331</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999993731856829</v>
+        <v>-1.024650324322259</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999997531799257</v>
+        <v>-0.1256586253448895</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999997046254693</v>
+        <v>-0.8273708948282581</v>
       </c>
       <c r="G19" t="n">
-        <v>1.782221075246035e-07</v>
+        <v>0.2674822428401801</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1878888013991876</v>
+        <v>7.166511175410543</v>
       </c>
       <c r="I19" t="n">
-        <v>1.574685363347936e-07</v>
+        <v>0.8623296748917741</v>
       </c>
       <c r="J19" t="n">
-        <v>2.145773186929643e-07</v>
+        <v>0.1345500933498366</v>
       </c>
       <c r="K19" t="n">
-        <v>1.86022927513879e-07</v>
+        <v>0.4984398841208053</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000281951615446217</v>
+        <v>0.3058603839488149</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0004221636027947027</v>
+        <v>0.5171868548601948</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000000175737104</v>
+        <v>0.01692191041113511</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0004401359813648054</v>
+        <v>0.5392045699959743</v>
       </c>
       <c r="P19" t="n">
-        <v>161.0804705388431</v>
+        <v>28.63740419351064</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3073991552762</v>
+        <v>44.48278991679724</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_21</t>
+          <t>model_8_2_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999999445695645</v>
+        <v>0.5016863060006331</v>
       </c>
       <c r="C20" t="n">
-        <v>0.683497850694883</v>
+        <v>-13.01205845908138</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999997036306998</v>
+        <v>-1.444484215508872</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999999335262547</v>
+        <v>-0.110519371730331</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999998950087922</v>
+        <v>-1.151835452816199</v>
       </c>
       <c r="G20" t="n">
-        <v>3.290590095833865e-08</v>
+        <v>0.2958205347887624</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1878893480084683</v>
+        <v>8.318163190719218</v>
       </c>
       <c r="I20" t="n">
-        <v>7.445401078443762e-08</v>
+        <v>1.041143378446579</v>
       </c>
       <c r="J20" t="n">
-        <v>5.779010511575897e-08</v>
+        <v>0.1327404967801292</v>
       </c>
       <c r="K20" t="n">
-        <v>6.612205795009828e-08</v>
+        <v>0.5869419376133542</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001027814393790748</v>
+        <v>0.3182751134594079</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001813998372610589</v>
+        <v>0.5438938635329161</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000000032447084</v>
+        <v>-0.08722987781680036</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0001891224038826921</v>
+        <v>0.5670485513190229</v>
       </c>
       <c r="P20" t="n">
-        <v>164.4592276696448</v>
+        <v>28.43600461984481</v>
       </c>
       <c r="Q20" t="n">
-        <v>243.6861562860779</v>
+        <v>44.28139034313142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_20</t>
+          <t>model_8_2_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999999386507257</v>
+        <v>0.5095697845539167</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6834975316028018</v>
+        <v>-17.339722838631</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999996970785915</v>
+        <v>-1.371713760767195</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999999299200177</v>
+        <v>-0.1210389759056507</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999998912129289</v>
+        <v>-1.097325489234672</v>
       </c>
       <c r="G21" t="n">
-        <v>3.641957938323626e-08</v>
+        <v>0.2911405613709918</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1878895374353117</v>
+        <v>10.88725171178698</v>
       </c>
       <c r="I21" t="n">
-        <v>7.610003397896533e-08</v>
+        <v>1.010149323905273</v>
       </c>
       <c r="J21" t="n">
-        <v>6.092524986790207e-08</v>
+        <v>0.1339979061686629</v>
       </c>
       <c r="K21" t="n">
-        <v>6.85126419234337e-08</v>
+        <v>0.5720736150369682</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001110450341646889</v>
+        <v>0.3171084657163843</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0001908391453115326</v>
+        <v>0.5395744261647246</v>
       </c>
       <c r="N21" t="n">
-        <v>1.00000003591177</v>
+        <v>-0.07002956097327262</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0001989635628189358</v>
+        <v>0.5625452265595995</v>
       </c>
       <c r="P21" t="n">
-        <v>164.2563186235472</v>
+        <v>28.46789819933039</v>
       </c>
       <c r="Q21" t="n">
-        <v>243.4832472399802</v>
+        <v>44.31328392261699</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_15</t>
+          <t>model_8_2_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999999879739775</v>
+        <v>0.4588280680911019</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6834967529961067</v>
+        <v>-20.31212565296087</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999996329806407</v>
+        <v>-1.816701938969332</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999998905021413</v>
+        <v>-0.1058161351404854</v>
       </c>
       <c r="F22" t="n">
-        <v>0.99999985122214</v>
+        <v>-1.441410726487238</v>
       </c>
       <c r="G22" t="n">
-        <v>7.139166451260749e-08</v>
+        <v>0.3212630361913379</v>
       </c>
       <c r="H22" t="n">
-        <v>0.18788999964988</v>
+        <v>12.65179842348903</v>
       </c>
       <c r="I22" t="n">
-        <v>9.220274608977361e-08</v>
+        <v>1.199676624708775</v>
       </c>
       <c r="J22" t="n">
-        <v>9.519386533440997e-08</v>
+        <v>0.1321783184180914</v>
       </c>
       <c r="K22" t="n">
-        <v>9.369830571209178e-08</v>
+        <v>0.6659274715634331</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001737854948071844</v>
+        <v>0.3296971337374059</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0002671921864737206</v>
+        <v>0.5668007023560733</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000000070396229</v>
+        <v>-0.1807387605285049</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0002785671110159826</v>
+        <v>0.5909305816945752</v>
       </c>
       <c r="P22" t="n">
-        <v>162.9101694358737</v>
+        <v>28.27099012802421</v>
       </c>
       <c r="Q22" t="n">
-        <v>242.1370980523067</v>
+        <v>44.11637585131081</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_16</t>
+          <t>model_8_2_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999998971571936</v>
+        <v>0.4896998611829018</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6834966561036192</v>
+        <v>-30.39724457429412</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999996539644338</v>
+        <v>-1.547211469153257</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999026113537</v>
+        <v>-0.1013665008404505</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999998637782863</v>
+        <v>-1.230033394654112</v>
       </c>
       <c r="G23" t="n">
-        <v>6.105193246928307e-08</v>
+        <v>0.302936206220023</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1878900571694461</v>
+        <v>18.63876066964568</v>
       </c>
       <c r="I23" t="n">
-        <v>8.69311894146726e-08</v>
+        <v>1.08489649382335</v>
       </c>
       <c r="J23" t="n">
-        <v>8.466651126809265e-08</v>
+        <v>0.1316464531643082</v>
       </c>
       <c r="K23" t="n">
-        <v>8.579061268662191e-08</v>
+        <v>0.6082714734938292</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001585694819147637</v>
+        <v>0.3221123150428971</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0002470868925485184</v>
+        <v>0.5503964082550167</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000000060200667</v>
+        <v>-0.1133821210554871</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0002576058931046885</v>
+        <v>0.5738279228320665</v>
       </c>
       <c r="P23" t="n">
-        <v>163.2230819660243</v>
+        <v>28.38846607233503</v>
       </c>
       <c r="Q23" t="n">
-        <v>242.4500105824574</v>
+        <v>44.23385179562163</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_12</t>
+          <t>model_8_2_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999997958371893</v>
+        <v>0.6678331914643527</v>
       </c>
       <c r="C24" t="n">
-        <v>0.683495738206892</v>
+        <v>-35.47826378685941</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999995164222895</v>
+        <v>0.01580434459877356</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999998277692358</v>
+        <v>-0.01044226891994238</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999997846629629</v>
+        <v>0.0102001698095523</v>
       </c>
       <c r="G24" t="n">
-        <v>1.211998638079798e-07</v>
+        <v>0.1971885664057557</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1878906020725945</v>
+        <v>21.65507316282583</v>
       </c>
       <c r="I24" t="n">
-        <v>1.21484580376709e-07</v>
+        <v>0.4191840484040791</v>
       </c>
       <c r="J24" t="n">
-        <v>1.497318064755272e-07</v>
+        <v>0.1207782702026059</v>
       </c>
       <c r="K24" t="n">
-        <v>1.35616384895601e-07</v>
+        <v>0.2699811593033425</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002316674903077821</v>
+        <v>0.2688264977534489</v>
       </c>
       <c r="M24" t="n">
-        <v>0.000348137708109851</v>
+        <v>0.444059192457217</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000000119509938</v>
+        <v>0.275272417740406</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0003629586510884926</v>
+        <v>0.462963711609372</v>
       </c>
       <c r="P24" t="n">
-        <v>161.8516497740167</v>
+        <v>29.24718963636265</v>
       </c>
       <c r="Q24" t="n">
-        <v>241.0785783904498</v>
+        <v>45.09257535964926</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_11</t>
+          <t>model_8_2_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999997528257847</v>
+        <v>0.7108503911576035</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6834955639446464</v>
+        <v>-47.04175684231647</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999994532144676</v>
+        <v>0.4768958306475226</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999997943994156</v>
+        <v>0.1062265056372976</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999997490497889</v>
+        <v>0.395756633439958</v>
       </c>
       <c r="G25" t="n">
-        <v>1.46733291597727e-07</v>
+        <v>0.1716516984215727</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1878907055221912</v>
+        <v>28.5196621574357</v>
       </c>
       <c r="I25" t="n">
-        <v>1.373636739453607e-07</v>
+        <v>0.2227981014169708</v>
       </c>
       <c r="J25" t="n">
-        <v>1.787424392347723e-07</v>
+        <v>0.1068328393639464</v>
       </c>
       <c r="K25" t="n">
-        <v>1.580450853888317e-07</v>
+        <v>0.1648154703904586</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002555521972359472</v>
+        <v>0.2337426615345749</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0003830578175650864</v>
+        <v>0.4143086994278212</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000000144687346</v>
+        <v>0.369128126162044</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0003993653818978291</v>
+        <v>0.4319466784997042</v>
       </c>
       <c r="P25" t="n">
-        <v>161.4692984819077</v>
+        <v>29.52457572889768</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.6962270983408</v>
+        <v>45.36996145218428</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_13</t>
+          <t>model_8_2_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999998302717198</v>
+        <v>0.6987484185436316</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6834941434706511</v>
+        <v>-81.13592061173419</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999995654907843</v>
+        <v>0.7345325244762659</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999998541446987</v>
+        <v>0.08832688574668324</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999998126800858</v>
+        <v>0.5929822971992298</v>
       </c>
       <c r="G26" t="n">
-        <v>1.007580390213664e-07</v>
+        <v>0.1788359521432227</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1878915487769161</v>
+        <v>48.75943056214989</v>
       </c>
       <c r="I26" t="n">
-        <v>1.091575740275864e-07</v>
+        <v>0.1130666758168977</v>
       </c>
       <c r="J26" t="n">
-        <v>1.268018396093533e-07</v>
+        <v>0.1089723828036556</v>
       </c>
       <c r="K26" t="n">
-        <v>1.179715757451195e-07</v>
+        <v>0.1110195293102767</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000210022200554553</v>
+        <v>0.2461730729882159</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0003174240681192377</v>
+        <v>0.4228900000511039</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00000009935314</v>
+        <v>0.3427238222770144</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0003309374678574792</v>
+        <v>0.4408933028562613</v>
       </c>
       <c r="P26" t="n">
-        <v>162.2210876950549</v>
+        <v>29.44257272365798</v>
       </c>
       <c r="Q26" t="n">
-        <v>241.448016311488</v>
+        <v>45.28795844694459</v>
       </c>
     </row>
   </sheetData>
